--- a/excel-data/stock_report.xlsx
+++ b/excel-data/stock_report.xlsx
@@ -946,8 +946,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
